--- a/data/pca/factorExposure/factorExposure_2017-07-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-07-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02368319176908028</v>
+        <v>0.009261604566476471</v>
       </c>
       <c r="C2">
-        <v>0.002752544173892453</v>
+        <v>0.0416161510654397</v>
       </c>
       <c r="D2">
-        <v>0.02764797841342376</v>
+        <v>0.02941596512718499</v>
       </c>
       <c r="E2">
-        <v>0.01093161346657631</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03091334276698047</v>
+      </c>
+      <c r="F2">
+        <v>0.008349446996447079</v>
+      </c>
+      <c r="G2">
+        <v>-0.0759570196322507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01712014518026127</v>
+        <v>0.04280129242823184</v>
       </c>
       <c r="C3">
-        <v>-0.05491009939283181</v>
+        <v>0.08966463281285184</v>
       </c>
       <c r="D3">
-        <v>0.04641862340317904</v>
+        <v>0.01760206371514981</v>
       </c>
       <c r="E3">
-        <v>0.01494689293862443</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.1036855916832922</v>
+      </c>
+      <c r="F3">
+        <v>0.01287019396624706</v>
+      </c>
+      <c r="G3">
+        <v>-0.180389653676013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02334658995910798</v>
+        <v>0.05570084987481078</v>
       </c>
       <c r="C4">
-        <v>-0.00862519647655237</v>
+        <v>0.06720020038080911</v>
       </c>
       <c r="D4">
-        <v>0.07930242104057876</v>
+        <v>0.02436644313467024</v>
       </c>
       <c r="E4">
-        <v>-0.01702938149239924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02441260923001315</v>
+      </c>
+      <c r="F4">
+        <v>0.01135872048807701</v>
+      </c>
+      <c r="G4">
+        <v>-0.08692367390966337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01440747052254608</v>
+        <v>0.03698310189752359</v>
       </c>
       <c r="C6">
-        <v>0.0005794664945994851</v>
+        <v>0.05328911971660855</v>
       </c>
       <c r="D6">
-        <v>0.08142752045120821</v>
+        <v>0.01626949147722415</v>
       </c>
       <c r="E6">
-        <v>-0.01026163223079758</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02321413645218168</v>
+      </c>
+      <c r="F6">
+        <v>0.009103970843348855</v>
+      </c>
+      <c r="G6">
+        <v>-0.06026031353510927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01105149016659978</v>
+        <v>0.01954581546987989</v>
       </c>
       <c r="C7">
-        <v>-0.005545729373948311</v>
+        <v>0.04078442080208561</v>
       </c>
       <c r="D7">
-        <v>0.04175684205746858</v>
+        <v>0.01308942019399919</v>
       </c>
       <c r="E7">
-        <v>-0.05819203505431748</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.005729727681213069</v>
+      </c>
+      <c r="F7">
+        <v>-0.004199686844366671</v>
+      </c>
+      <c r="G7">
+        <v>-0.1177855477177766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0001495927631705761</v>
+        <v>0.001989484916879168</v>
       </c>
       <c r="C8">
-        <v>0.002436504650197677</v>
+        <v>0.02325383128907634</v>
       </c>
       <c r="D8">
-        <v>0.0029360843778737</v>
+        <v>0.0038838868089337</v>
       </c>
       <c r="E8">
-        <v>-0.008322384653484614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02041315064421603</v>
+      </c>
+      <c r="F8">
+        <v>0.007060702375530662</v>
+      </c>
+      <c r="G8">
+        <v>-0.05753188452555357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.0161343934090843</v>
+        <v>0.0330261643373231</v>
       </c>
       <c r="C9">
-        <v>-0.01258369363732563</v>
+        <v>0.0479424204380069</v>
       </c>
       <c r="D9">
-        <v>0.05968148605790743</v>
+        <v>0.01643204645205974</v>
       </c>
       <c r="E9">
-        <v>-0.005834368239500959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01521500692382248</v>
+      </c>
+      <c r="F9">
+        <v>0.009440569933878313</v>
+      </c>
+      <c r="G9">
+        <v>-0.0830087562543672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02217750352916838</v>
+        <v>0.1001709831723802</v>
       </c>
       <c r="C10">
-        <v>-0.1745795600712396</v>
+        <v>-0.1812436709511257</v>
       </c>
       <c r="D10">
-        <v>-0.09356985158885557</v>
+        <v>-0.01514813667771877</v>
       </c>
       <c r="E10">
-        <v>0.01184077151130828</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01788747842149225</v>
+      </c>
+      <c r="F10">
+        <v>-0.02125563173253103</v>
+      </c>
+      <c r="G10">
+        <v>-0.05292830518280229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.0005633355702611966</v>
+        <v>0.03402314952313303</v>
       </c>
       <c r="C11">
-        <v>-0.001813058612250106</v>
+        <v>0.0549680890010576</v>
       </c>
       <c r="D11">
-        <v>0.04635039083791841</v>
+        <v>0.002309270533014127</v>
       </c>
       <c r="E11">
-        <v>0.004938141639888365</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.008093582265862433</v>
+      </c>
+      <c r="F11">
+        <v>0.02091772197256061</v>
+      </c>
+      <c r="G11">
+        <v>-0.06676152418717544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.006216146939100066</v>
+        <v>0.03561908391750093</v>
       </c>
       <c r="C12">
-        <v>-0.008422034161070827</v>
+        <v>0.04910345441458616</v>
       </c>
       <c r="D12">
-        <v>0.04841069670701691</v>
+        <v>0.006106935909177324</v>
       </c>
       <c r="E12">
-        <v>-0.007073180662226884</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-5.95939182879367e-05</v>
+      </c>
+      <c r="F12">
+        <v>0.000552660439200046</v>
+      </c>
+      <c r="G12">
+        <v>-0.06256487484123709</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02392295168085248</v>
+        <v>0.0145497434171913</v>
       </c>
       <c r="C13">
-        <v>-0.01783179121347611</v>
+        <v>0.03734776819177905</v>
       </c>
       <c r="D13">
-        <v>0.008921043138239663</v>
+        <v>0.02600529942742966</v>
       </c>
       <c r="E13">
-        <v>0.008919305033682811</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02834655862155876</v>
+      </c>
+      <c r="F13">
+        <v>0.006716349196622113</v>
+      </c>
+      <c r="G13">
+        <v>-0.09828801054521552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.008647442290301056</v>
+        <v>0.007793975856414434</v>
       </c>
       <c r="C14">
-        <v>-0.0142195171240833</v>
+        <v>0.02633208069535686</v>
       </c>
       <c r="D14">
-        <v>0.01135485392416365</v>
+        <v>0.009318255377424978</v>
       </c>
       <c r="E14">
-        <v>-0.008194086006127546</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.0005499703631667908</v>
+      </c>
+      <c r="F14">
+        <v>-0.007964657940923542</v>
+      </c>
+      <c r="G14">
+        <v>-0.08352759595325182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.001396438851665828</v>
+        <v>0.03291892290095817</v>
       </c>
       <c r="C16">
-        <v>-0.007709843038773485</v>
+        <v>0.04885049599717675</v>
       </c>
       <c r="D16">
-        <v>0.0497165423285581</v>
+        <v>0.001846936351521375</v>
       </c>
       <c r="E16">
-        <v>-0.006121370343760132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.00717477097414651</v>
+      </c>
+      <c r="F16">
+        <v>0.001923485658761066</v>
+      </c>
+      <c r="G16">
+        <v>-0.06915141217789514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01478218428393613</v>
+        <v>0.01985980522352203</v>
       </c>
       <c r="C19">
-        <v>-0.01807170500112952</v>
+        <v>0.04923927580614695</v>
       </c>
       <c r="D19">
-        <v>0.02147594816869731</v>
+        <v>0.0184968186589896</v>
       </c>
       <c r="E19">
-        <v>-0.006254389061986123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06404885968268077</v>
+      </c>
+      <c r="F19">
+        <v>0.02194918247656227</v>
+      </c>
+      <c r="G19">
+        <v>-0.1149768556092124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.0108852303111895</v>
+        <v>0.01414047521623751</v>
       </c>
       <c r="C20">
-        <v>-0.004959638049211369</v>
+        <v>0.03744363395713103</v>
       </c>
       <c r="D20">
-        <v>0.01749376872083408</v>
+        <v>0.01390616339722991</v>
       </c>
       <c r="E20">
-        <v>0.01017470338509061</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02657127146950539</v>
+      </c>
+      <c r="F20">
+        <v>-0.01029468679359038</v>
+      </c>
+      <c r="G20">
+        <v>-0.08922462784918524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01525253952325485</v>
+        <v>0.01215746436867733</v>
       </c>
       <c r="C21">
-        <v>-0.01758364468278954</v>
+        <v>0.03827894530342595</v>
       </c>
       <c r="D21">
-        <v>0.02624740598387029</v>
+        <v>0.01800006376432369</v>
       </c>
       <c r="E21">
-        <v>-0.01291013760394804</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03860001018286374</v>
+      </c>
+      <c r="F21">
+        <v>7.735977791538731e-05</v>
+      </c>
+      <c r="G21">
+        <v>-0.116023393687833</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0003073327931248889</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0001135912257822051</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>6.874397552948512e-05</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0003622118388528071</v>
+      </c>
+      <c r="F22">
+        <v>0.0002383269525423904</v>
+      </c>
+      <c r="G22">
+        <v>-0.0007072948434687004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0003073327931248889</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0001135912257822051</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>6.874397552948512e-05</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0003622118388528071</v>
+      </c>
+      <c r="F23">
+        <v>0.0002383269525423904</v>
+      </c>
+      <c r="G23">
+        <v>-0.0007072948434687004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004405202130740838</v>
+        <v>0.02746762499239941</v>
       </c>
       <c r="C24">
-        <v>0.003283176993736342</v>
+        <v>0.05149312338889856</v>
       </c>
       <c r="D24">
-        <v>0.04590789651381565</v>
+        <v>0.007116868806013873</v>
       </c>
       <c r="E24">
-        <v>-0.002601557260120762</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.003847774298825342</v>
+      </c>
+      <c r="F24">
+        <v>0.0131703682717045</v>
+      </c>
+      <c r="G24">
+        <v>-0.07008033441584208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01232335823820349</v>
+        <v>0.04212601221040681</v>
       </c>
       <c r="C25">
-        <v>-0.01421706037377155</v>
+        <v>0.05877893724171044</v>
       </c>
       <c r="D25">
-        <v>0.04935996567173646</v>
+        <v>0.01113084947941846</v>
       </c>
       <c r="E25">
-        <v>-0.002855021531408177</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.002242528029523031</v>
+      </c>
+      <c r="F25">
+        <v>0.007109391226487623</v>
+      </c>
+      <c r="G25">
+        <v>-0.07850472459520962</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02350922827145406</v>
+        <v>0.01437718262333644</v>
       </c>
       <c r="C26">
-        <v>-0.01087120139983496</v>
+        <v>0.009984182615449103</v>
       </c>
       <c r="D26">
-        <v>-0.001940503701178568</v>
+        <v>0.02354581550001493</v>
       </c>
       <c r="E26">
-        <v>-0.008625304568380976</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.004915062489651398</v>
+      </c>
+      <c r="F26">
+        <v>-0.008605512776531307</v>
+      </c>
+      <c r="G26">
+        <v>-0.06580106986004867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.04595114592930789</v>
+        <v>0.1293391313872317</v>
       </c>
       <c r="C28">
-        <v>-0.2519233753252583</v>
+        <v>-0.2349953889044029</v>
       </c>
       <c r="D28">
-        <v>-0.1330903064515438</v>
+        <v>-0.0060948617188229</v>
       </c>
       <c r="E28">
-        <v>-0.01120460298567562</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.005223668078117296</v>
+      </c>
+      <c r="F28">
+        <v>-0.01629809472779685</v>
+      </c>
+      <c r="G28">
+        <v>-0.06630150319916855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.009093617746962412</v>
+        <v>0.009155404025198722</v>
       </c>
       <c r="C29">
-        <v>-0.01917379096821892</v>
+        <v>0.02012425142705392</v>
       </c>
       <c r="D29">
-        <v>0.01009768092422541</v>
+        <v>0.008237721132937968</v>
       </c>
       <c r="E29">
-        <v>-0.003422697444766426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001525799231420403</v>
+      </c>
+      <c r="F29">
+        <v>-0.01618481384543233</v>
+      </c>
+      <c r="G29">
+        <v>-0.07511010699679499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02390095275935319</v>
+        <v>0.04054698437218621</v>
       </c>
       <c r="C30">
-        <v>0.00308932210950297</v>
+        <v>0.06761667813795359</v>
       </c>
       <c r="D30">
-        <v>0.0608045073066957</v>
+        <v>0.02893440116524671</v>
       </c>
       <c r="E30">
-        <v>0.045636923836003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05003681531299298</v>
+      </c>
+      <c r="F30">
+        <v>0.05038839783952196</v>
+      </c>
+      <c r="G30">
+        <v>-0.08533329855015687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.009834688577237842</v>
+        <v>0.05250421920847474</v>
       </c>
       <c r="C31">
-        <v>-0.03865793352091955</v>
+        <v>0.03685932478595422</v>
       </c>
       <c r="D31">
-        <v>0.04686181701732289</v>
+        <v>0.003276851008309947</v>
       </c>
       <c r="E31">
-        <v>-0.01095709065339316</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.004535995715496115</v>
+      </c>
+      <c r="F31">
+        <v>-0.04157319538155251</v>
+      </c>
+      <c r="G31">
+        <v>-0.07367425692060313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.004781812599445903</v>
+        <v>0.001311144900008712</v>
       </c>
       <c r="C32">
-        <v>-0.02290882936835761</v>
+        <v>0.02204054881827304</v>
       </c>
       <c r="D32">
-        <v>-0.000793810997037279</v>
+        <v>-0.00412345639407987</v>
       </c>
       <c r="E32">
-        <v>-0.05243093491320458</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01437162661407413</v>
+      </c>
+      <c r="F32">
+        <v>0.03935748361015406</v>
+      </c>
+      <c r="G32">
+        <v>-0.09418483870625327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01406431524003749</v>
+        <v>0.02716355934268835</v>
       </c>
       <c r="C33">
-        <v>-0.02183839336259064</v>
+        <v>0.04844904613614033</v>
       </c>
       <c r="D33">
-        <v>0.03483077855723972</v>
+        <v>0.01527904305510526</v>
       </c>
       <c r="E33">
-        <v>0.02880924944760012</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03250347133440933</v>
+      </c>
+      <c r="F33">
+        <v>0.01802406732008685</v>
+      </c>
+      <c r="G33">
+        <v>-0.1118391742650226</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004035397402490101</v>
+        <v>0.03987972788933579</v>
       </c>
       <c r="C34">
-        <v>-0.01440693240743067</v>
+        <v>0.0627453102592847</v>
       </c>
       <c r="D34">
-        <v>0.0542859071230686</v>
+        <v>-0.004704244303166758</v>
       </c>
       <c r="E34">
-        <v>-0.0107001194350982</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.001838877029539984</v>
+      </c>
+      <c r="F34">
+        <v>0.0197792952939402</v>
+      </c>
+      <c r="G34">
+        <v>-0.07836043238494969</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01333856877310939</v>
+        <v>0.01563883649807104</v>
       </c>
       <c r="C36">
-        <v>-0.02014682085511333</v>
+        <v>0.008413670980375891</v>
       </c>
       <c r="D36">
-        <v>0.007500807726401221</v>
+        <v>0.01176686296312186</v>
       </c>
       <c r="E36">
-        <v>-0.003923873395888931</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.001328178803502676</v>
+      </c>
+      <c r="F36">
+        <v>-0.007464598486092353</v>
+      </c>
+      <c r="G36">
+        <v>-0.06607905042953612</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.0034834484054908</v>
+        <v>0.03233313289874534</v>
       </c>
       <c r="C38">
-        <v>-0.02921441213816794</v>
+        <v>0.03141728847858659</v>
       </c>
       <c r="D38">
-        <v>0.04378076719753414</v>
+        <v>-0.007680805856911826</v>
       </c>
       <c r="E38">
-        <v>-0.007852030371109677</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002252771682837959</v>
+      </c>
+      <c r="F38">
+        <v>-0.01739086243002719</v>
+      </c>
+      <c r="G38">
+        <v>-0.06997797862802385</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.004234229546988951</v>
+        <v>0.03434114226137167</v>
       </c>
       <c r="C39">
-        <v>0.0262430931759155</v>
+        <v>0.08088165961416027</v>
       </c>
       <c r="D39">
-        <v>0.08716566297174216</v>
+        <v>0.0115627400358004</v>
       </c>
       <c r="E39">
-        <v>0.008685982933665929</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01816562393185443</v>
+      </c>
+      <c r="F39">
+        <v>0.02620615952318588</v>
+      </c>
+      <c r="G39">
+        <v>-0.066915708821187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01223533532458504</v>
+        <v>0.01504786867341503</v>
       </c>
       <c r="C40">
-        <v>-0.01485293750213671</v>
+        <v>0.04145636586322147</v>
       </c>
       <c r="D40">
-        <v>0.02870933685009638</v>
+        <v>0.01489980508752583</v>
       </c>
       <c r="E40">
-        <v>-0.003373510160670821</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.02113295777000709</v>
+      </c>
+      <c r="F40">
+        <v>-0.01438268558938695</v>
+      </c>
+      <c r="G40">
+        <v>-0.1081217031502158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.006582551648983394</v>
+        <v>0.01940893924149993</v>
       </c>
       <c r="C41">
-        <v>-0.02238989706639025</v>
+        <v>-0.0008077967241594924</v>
       </c>
       <c r="D41">
-        <v>-0.007347300617010573</v>
+        <v>0.003788816112652042</v>
       </c>
       <c r="E41">
-        <v>-0.003399452692371225</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>8.441341639687098e-05</v>
+      </c>
+      <c r="F41">
+        <v>-0.01152034830624559</v>
+      </c>
+      <c r="G41">
+        <v>-0.05265067070088727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09288321639942612</v>
+        <v>0.009496589830992729</v>
       </c>
       <c r="C42">
-        <v>0.0290895591599951</v>
+        <v>0.03723175090974742</v>
       </c>
       <c r="D42">
-        <v>0.246934635186557</v>
+        <v>0.09330450223688105</v>
       </c>
       <c r="E42">
-        <v>0.404342078306601</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.02748340069148647</v>
+      </c>
+      <c r="F42">
+        <v>-0.03459693726163423</v>
+      </c>
+      <c r="G42">
+        <v>0.1460619913401447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.007812342960471253</v>
+        <v>0.03334610599859724</v>
       </c>
       <c r="C43">
-        <v>-0.02600746061450437</v>
+        <v>0.01394371590495939</v>
       </c>
       <c r="D43">
-        <v>-0.005124457930991068</v>
+        <v>0.005555560242501905</v>
       </c>
       <c r="E43">
-        <v>0.001412818429304537</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.0137046670792643</v>
+      </c>
+      <c r="F43">
+        <v>-0.002456405934238485</v>
+      </c>
+      <c r="G43">
+        <v>-0.0787048068800011</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002654279780844601</v>
+        <v>0.01104399794432498</v>
       </c>
       <c r="C44">
-        <v>-0.0003113856052778197</v>
+        <v>0.0561357630061306</v>
       </c>
       <c r="D44">
-        <v>0.03965491290654343</v>
+        <v>0.006581597482176547</v>
       </c>
       <c r="E44">
-        <v>-0.007840376852228149</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01731160717789752</v>
+      </c>
+      <c r="F44">
+        <v>-0.008855541506713841</v>
+      </c>
+      <c r="G44">
+        <v>-0.08949593910631426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01152603153542316</v>
+        <v>0.007521626452670786</v>
       </c>
       <c r="C46">
-        <v>-0.01487627995074286</v>
+        <v>0.01508164234433064</v>
       </c>
       <c r="D46">
-        <v>0.01086561434194018</v>
+        <v>0.01193825895046297</v>
       </c>
       <c r="E46">
-        <v>0.0001593061431127791</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.001301025134569423</v>
+      </c>
+      <c r="F46">
+        <v>-0.01591148089704878</v>
+      </c>
+      <c r="G46">
+        <v>-0.07590710050553458</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.004489954789064703</v>
+        <v>0.07685248651909811</v>
       </c>
       <c r="C47">
-        <v>-0.04854412551019897</v>
+        <v>0.06690355918810595</v>
       </c>
       <c r="D47">
-        <v>0.07328874365811644</v>
+        <v>-0.005344446552323909</v>
       </c>
       <c r="E47">
-        <v>-0.00650409191331666</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.008368336011430647</v>
+      </c>
+      <c r="F47">
+        <v>-0.05497717203416028</v>
+      </c>
+      <c r="G47">
+        <v>-0.06808937032233549</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.004200968624479939</v>
+        <v>0.0203733797617176</v>
       </c>
       <c r="C48">
-        <v>-0.02448880877788964</v>
+        <v>0.0118019174529323</v>
       </c>
       <c r="D48">
-        <v>0.01925730724122649</v>
+        <v>0.001182186087885253</v>
       </c>
       <c r="E48">
-        <v>-0.003317020782309379</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.001105916759611973</v>
+      </c>
+      <c r="F48">
+        <v>-0.02114221145781065</v>
+      </c>
+      <c r="G48">
+        <v>-0.07134878335982078</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.006719361628629017</v>
+        <v>0.07535618732250282</v>
       </c>
       <c r="C50">
-        <v>-0.05160352220049473</v>
+        <v>0.06966976783676564</v>
       </c>
       <c r="D50">
-        <v>0.07298024487156111</v>
+        <v>-0.00301022208782958</v>
       </c>
       <c r="E50">
-        <v>-0.03328373955682593</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.008682954001076718</v>
+      </c>
+      <c r="F50">
+        <v>-0.05983695886814361</v>
+      </c>
+      <c r="G50">
+        <v>-0.08683936060831192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.007647047222945336</v>
+        <v>0.01338673938990997</v>
       </c>
       <c r="C51">
-        <v>-0.01495998773851306</v>
+        <v>0.03390107304095163</v>
       </c>
       <c r="D51">
-        <v>0.001234745749188566</v>
+        <v>0.009903305564470473</v>
       </c>
       <c r="E51">
-        <v>-0.006081724511945688</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01577781364185456</v>
+      </c>
+      <c r="F51">
+        <v>0.02406593082590416</v>
+      </c>
+      <c r="G51">
+        <v>-0.1045433163271111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.007344593445369105</v>
+        <v>0.08123566516512487</v>
       </c>
       <c r="C53">
-        <v>-0.05708286130133498</v>
+        <v>0.08412008455307537</v>
       </c>
       <c r="D53">
-        <v>0.1312281035463363</v>
+        <v>-0.004394158819084253</v>
       </c>
       <c r="E53">
-        <v>-0.01435127324488643</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02814447991057205</v>
+      </c>
+      <c r="F53">
+        <v>-0.06697247446343307</v>
+      </c>
+      <c r="G53">
+        <v>-0.06699606038352582</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001969661197215201</v>
+        <v>0.02893723424652149</v>
       </c>
       <c r="C54">
-        <v>-0.03567780643887646</v>
+        <v>0.01494210442616852</v>
       </c>
       <c r="D54">
-        <v>-0.006421306886983008</v>
+        <v>-0.001633909645513152</v>
       </c>
       <c r="E54">
-        <v>-0.001136089507130273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.009474589934341035</v>
+      </c>
+      <c r="F54">
+        <v>-0.0001533401786700994</v>
+      </c>
+      <c r="G54">
+        <v>-0.07824953898916277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.003638866175603456</v>
+        <v>0.07086192268950539</v>
       </c>
       <c r="C55">
-        <v>-0.03634141907013187</v>
+        <v>0.06919812311444262</v>
       </c>
       <c r="D55">
-        <v>0.1049292328614125</v>
+        <v>-0.005442776238847046</v>
       </c>
       <c r="E55">
-        <v>0.000164055407418306</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02394600323065837</v>
+      </c>
+      <c r="F55">
+        <v>-0.06295699724037603</v>
+      </c>
+      <c r="G55">
+        <v>-0.04182057273140501</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.006195025281188175</v>
+        <v>0.1370907576062528</v>
       </c>
       <c r="C56">
-        <v>-0.0776513819073458</v>
+        <v>0.1102981356829778</v>
       </c>
       <c r="D56">
-        <v>0.1678263409093799</v>
+        <v>-0.01270530948345178</v>
       </c>
       <c r="E56">
-        <v>-0.003930766690171227</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03149521461423607</v>
+      </c>
+      <c r="F56">
+        <v>-0.08143135038094403</v>
+      </c>
+      <c r="G56">
+        <v>-0.01930892901395702</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02380308453184313</v>
+        <v>0.006825645732701601</v>
       </c>
       <c r="C57">
-        <v>-0.006523667579439613</v>
+        <v>0.009412433330889355</v>
       </c>
       <c r="D57">
-        <v>0.04636121214926044</v>
+        <v>0.02358880561133878</v>
       </c>
       <c r="E57">
-        <v>0.00178988455051385</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02377980241864576</v>
+      </c>
+      <c r="F57">
+        <v>0.009171849091121297</v>
+      </c>
+      <c r="G57">
+        <v>-0.02853660115515631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01511802797208673</v>
+        <v>0.05800020352461862</v>
       </c>
       <c r="C58">
-        <v>-0.06638968229686319</v>
+        <v>0.05185451272776714</v>
       </c>
       <c r="D58">
-        <v>0.1466504666026623</v>
+        <v>0.02991542517696897</v>
       </c>
       <c r="E58">
-        <v>0.4289870417101651</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9395781719958972</v>
+      </c>
+      <c r="F58">
+        <v>-0.2231599891438667</v>
+      </c>
+      <c r="G58">
+        <v>0.1157031260229161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.04347777079432377</v>
+        <v>0.1618631698582839</v>
       </c>
       <c r="C59">
-        <v>-0.2660522317355308</v>
+        <v>-0.1995936068914811</v>
       </c>
       <c r="D59">
-        <v>-0.1330409716181168</v>
+        <v>-0.01112236177346667</v>
       </c>
       <c r="E59">
-        <v>-0.003629364793113687</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.01720420138159702</v>
+      </c>
+      <c r="F59">
+        <v>0.001126773734101195</v>
+      </c>
+      <c r="G59">
+        <v>-0.0419977276021905</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.04270206813871671</v>
+        <v>0.2851521695231698</v>
       </c>
       <c r="C60">
-        <v>-0.1586153523586135</v>
+        <v>0.108698770081659</v>
       </c>
       <c r="D60">
-        <v>0.09778036951287536</v>
+        <v>0.01281110683232089</v>
       </c>
       <c r="E60">
-        <v>-0.005335238624907441</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.002678336572848636</v>
+      </c>
+      <c r="F60">
+        <v>0.3505232929328981</v>
+      </c>
+      <c r="G60">
+        <v>0.1262275438468953</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003095770039985617</v>
+        <v>0.03665415150285661</v>
       </c>
       <c r="C61">
-        <v>-0.00292101890828509</v>
+        <v>0.06728855965787815</v>
       </c>
       <c r="D61">
-        <v>0.06617652182722925</v>
+        <v>0.004982874073716917</v>
       </c>
       <c r="E61">
-        <v>-0.003257664810096263</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.01110541799438091</v>
+      </c>
+      <c r="F61">
+        <v>0.0133501339807164</v>
+      </c>
+      <c r="G61">
+        <v>-0.06828891915491911</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.008377510143661523</v>
+        <v>0.01441933914738013</v>
       </c>
       <c r="C63">
-        <v>-0.0085943921823064</v>
+        <v>0.02849276171772541</v>
       </c>
       <c r="D63">
-        <v>0.01771487108600819</v>
+        <v>0.008094363059904061</v>
       </c>
       <c r="E63">
-        <v>-0.009723062621825757</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0009223911516296499</v>
+      </c>
+      <c r="F63">
+        <v>-0.01848216189497256</v>
+      </c>
+      <c r="G63">
+        <v>-0.07579209843000079</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.009089342021983931</v>
+        <v>0.04708024895601119</v>
       </c>
       <c r="C64">
-        <v>-0.02526108802800738</v>
+        <v>0.04631571833613145</v>
       </c>
       <c r="D64">
-        <v>0.06201421470267305</v>
+        <v>0.006258884376148398</v>
       </c>
       <c r="E64">
-        <v>0.01103415623464693</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.0005887999309962691</v>
+      </c>
+      <c r="F64">
+        <v>0.005656807617174242</v>
+      </c>
+      <c r="G64">
+        <v>-0.06632942307426451</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01655885917515928</v>
+        <v>0.07513297794876457</v>
       </c>
       <c r="C65">
-        <v>0.001591420591802922</v>
+        <v>0.06119994736966106</v>
       </c>
       <c r="D65">
-        <v>0.09335342146575497</v>
+        <v>0.01628187900134476</v>
       </c>
       <c r="E65">
-        <v>-0.01541894739774315</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.02615474255632974</v>
+      </c>
+      <c r="F65">
+        <v>0.02946301287269013</v>
+      </c>
+      <c r="G65">
+        <v>-0.02686322758428158</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004188209615546913</v>
+        <v>0.04998634515622766</v>
       </c>
       <c r="C66">
-        <v>0.0214284392213865</v>
+        <v>0.1111520199379142</v>
       </c>
       <c r="D66">
-        <v>0.1150363320915512</v>
+        <v>0.01151693491655143</v>
       </c>
       <c r="E66">
-        <v>0.005869194667316768</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.02623280043005468</v>
+      </c>
+      <c r="F66">
+        <v>0.03506322772868935</v>
+      </c>
+      <c r="G66">
+        <v>-0.07996336397675166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.003404607642431134</v>
+        <v>0.05489139657770369</v>
       </c>
       <c r="C67">
-        <v>-0.0518653038265468</v>
+        <v>0.03554089418092429</v>
       </c>
       <c r="D67">
-        <v>0.05322017694010586</v>
+        <v>-0.005910359307905735</v>
       </c>
       <c r="E67">
-        <v>-0.008716170857152945</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003855423008522445</v>
+      </c>
+      <c r="F67">
+        <v>-0.01752998880582572</v>
+      </c>
+      <c r="G67">
+        <v>-0.06340247209495115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05953145761847722</v>
+        <v>0.1561363593117993</v>
       </c>
       <c r="C68">
-        <v>-0.243564912700953</v>
+        <v>-0.2675892949229673</v>
       </c>
       <c r="D68">
-        <v>-0.1508879819882496</v>
+        <v>0.005901810429941905</v>
       </c>
       <c r="E68">
-        <v>0.01833753272240148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01032313855497555</v>
+      </c>
+      <c r="F68">
+        <v>-0.03230999949140542</v>
+      </c>
+      <c r="G68">
+        <v>-0.0234110312290695</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0006163814576094235</v>
+        <v>0.08064522102947469</v>
       </c>
       <c r="C69">
-        <v>-0.03810781083708288</v>
+        <v>0.07001510908360919</v>
       </c>
       <c r="D69">
-        <v>0.07395602502425278</v>
+        <v>-0.00949295994911315</v>
       </c>
       <c r="E69">
-        <v>-0.01196652086973873</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02532865420067713</v>
+      </c>
+      <c r="F69">
+        <v>-0.03847330322115939</v>
+      </c>
+      <c r="G69">
+        <v>-0.07039143613230107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.04406370008465492</v>
+        <v>0.1426322952280313</v>
       </c>
       <c r="C71">
-        <v>-0.2126089828741048</v>
+        <v>-0.228273107221388</v>
       </c>
       <c r="D71">
-        <v>-0.1136602682718885</v>
+        <v>-0.00272352576855899</v>
       </c>
       <c r="E71">
-        <v>0.01160128957989135</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03077397810209889</v>
+      </c>
+      <c r="F71">
+        <v>-0.01762597817926365</v>
+      </c>
+      <c r="G71">
+        <v>-0.05861663774526522</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.001258572360438545</v>
+        <v>0.08410360872435306</v>
       </c>
       <c r="C72">
-        <v>-0.03347795658343208</v>
+        <v>0.07289457330136059</v>
       </c>
       <c r="D72">
-        <v>0.1196297534084235</v>
+        <v>-0.008126683335422996</v>
       </c>
       <c r="E72">
-        <v>-0.006907574584242029</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.003508464855983748</v>
+      </c>
+      <c r="F72">
+        <v>0.04196013648890881</v>
+      </c>
+      <c r="G72">
+        <v>-0.06183870134017258</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.05436515615738463</v>
+        <v>0.3735558073563248</v>
       </c>
       <c r="C73">
-        <v>-0.1672799897553514</v>
+        <v>0.1270330319583712</v>
       </c>
       <c r="D73">
-        <v>0.1954525823236694</v>
+        <v>0.02245859423319153</v>
       </c>
       <c r="E73">
-        <v>0.02897249184471306</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06210570693349662</v>
+      </c>
+      <c r="F73">
+        <v>0.5743125774312227</v>
+      </c>
+      <c r="G73">
+        <v>0.2178613460361172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.003128569370154382</v>
+        <v>0.1049606573174845</v>
       </c>
       <c r="C74">
-        <v>-0.06239219180067467</v>
+        <v>0.1116532504136445</v>
       </c>
       <c r="D74">
-        <v>0.1695764367013764</v>
+        <v>-0.009786976051123756</v>
       </c>
       <c r="E74">
-        <v>0.007708895605304644</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.009884392108220704</v>
+      </c>
+      <c r="F74">
+        <v>-0.07199456555040278</v>
+      </c>
+      <c r="G74">
+        <v>-0.06517300170046716</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.01198529004192515</v>
+        <v>0.2481923295228301</v>
       </c>
       <c r="C75">
-        <v>-0.1562021119131439</v>
+        <v>0.1532756939213544</v>
       </c>
       <c r="D75">
-        <v>0.3036325144571693</v>
+        <v>-0.0308413101728618</v>
       </c>
       <c r="E75">
-        <v>0.01125459940230092</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05473671439779668</v>
+      </c>
+      <c r="F75">
+        <v>-0.1765884877961648</v>
+      </c>
+      <c r="G75">
+        <v>0.05291264998035083</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0005304229041614735</v>
+        <v>0.1209306164683869</v>
       </c>
       <c r="C76">
-        <v>-0.09785104405288364</v>
+        <v>0.1136632384780397</v>
       </c>
       <c r="D76">
-        <v>0.2338710109945709</v>
+        <v>-0.02025204964087767</v>
       </c>
       <c r="E76">
-        <v>-0.03492039627113172</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03824925058103315</v>
+      </c>
+      <c r="F76">
+        <v>-0.1171733258061394</v>
+      </c>
+      <c r="G76">
+        <v>-0.04080548121105388</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01408631126856771</v>
+        <v>0.06591100116840778</v>
       </c>
       <c r="C77">
-        <v>-0.01923153396746746</v>
+        <v>0.06214137505600447</v>
       </c>
       <c r="D77">
-        <v>0.03836444504974315</v>
+        <v>0.012561488644725</v>
       </c>
       <c r="E77">
-        <v>0.01763185446560191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04902483754607372</v>
+      </c>
+      <c r="F77">
+        <v>0.01153735534174403</v>
+      </c>
+      <c r="G77">
+        <v>-0.05970161186619991</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.00608785393698756</v>
+        <v>0.04164971338191712</v>
       </c>
       <c r="C78">
-        <v>-0.01575861970108102</v>
+        <v>0.05099198954595091</v>
       </c>
       <c r="D78">
-        <v>0.04116243902624421</v>
+        <v>0.005501575833627597</v>
       </c>
       <c r="E78">
-        <v>0.002434303735731419</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02128298275398965</v>
+      </c>
+      <c r="F78">
+        <v>0.03771087156884613</v>
+      </c>
+      <c r="G78">
+        <v>-0.07183274359894373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01638433967500601</v>
+        <v>0.05375542756888866</v>
       </c>
       <c r="C80">
-        <v>-0.07425389963964867</v>
+        <v>0.07092208973574721</v>
       </c>
       <c r="D80">
-        <v>0.2038974346700132</v>
+        <v>0.0104439650032198</v>
       </c>
       <c r="E80">
-        <v>-0.7816903705181631</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02605334310234157</v>
+      </c>
+      <c r="F80">
+        <v>0.001088683764887875</v>
+      </c>
+      <c r="G80">
+        <v>-0.5964185885601495</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.008568700375811809</v>
+        <v>0.1393583878022439</v>
       </c>
       <c r="C81">
-        <v>-0.09753239685291026</v>
+        <v>0.09726746529937566</v>
       </c>
       <c r="D81">
-        <v>0.1725635548311931</v>
+        <v>-0.01550060392329364</v>
       </c>
       <c r="E81">
-        <v>-0.01665712896567019</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03260232104895516</v>
+      </c>
+      <c r="F81">
+        <v>-0.1342803221423523</v>
+      </c>
+      <c r="G81">
+        <v>-0.02166854853083411</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1230304544172035</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07119458743790358</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.007884011625378343</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.08651471009029776</v>
+      </c>
+      <c r="F82">
+        <v>-0.03453841561856612</v>
+      </c>
+      <c r="G82">
+        <v>-0.02573541571176212</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.007074208389527272</v>
+        <v>0.03631092898800722</v>
       </c>
       <c r="C83">
-        <v>-0.01889241661722961</v>
+        <v>0.0279311654772537</v>
       </c>
       <c r="D83">
-        <v>0.02266575800357391</v>
+        <v>0.005497244289982312</v>
       </c>
       <c r="E83">
-        <v>0.0002245169144750954</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02489056449765286</v>
+      </c>
+      <c r="F83">
+        <v>0.03401950218809842</v>
+      </c>
+      <c r="G83">
+        <v>-0.04712420200304581</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01847609526748791</v>
+        <v>0.213931383669558</v>
       </c>
       <c r="C85">
-        <v>-0.1226110681242252</v>
+        <v>0.1485862865208056</v>
       </c>
       <c r="D85">
-        <v>0.2783314542201444</v>
+        <v>-0.01880292002656597</v>
       </c>
       <c r="E85">
-        <v>0.004936633584948951</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09532546995890664</v>
+      </c>
+      <c r="F85">
+        <v>-0.1380342978171824</v>
+      </c>
+      <c r="G85">
+        <v>0.105047299516694</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009644351378556723</v>
+        <v>0.01331608124852011</v>
       </c>
       <c r="C86">
-        <v>-0.03021132699628068</v>
+        <v>0.02606913042319807</v>
       </c>
       <c r="D86">
-        <v>0.0154793311483133</v>
+        <v>0.01203184947302279</v>
       </c>
       <c r="E86">
-        <v>0.03437012272864791</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04356086408611719</v>
+      </c>
+      <c r="F86">
+        <v>0.0321869475314803</v>
+      </c>
+      <c r="G86">
+        <v>-0.155952313994299</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008740514981759009</v>
+        <v>0.02304108830695914</v>
       </c>
       <c r="C87">
-        <v>-0.006872129505973191</v>
+        <v>0.02211955919381104</v>
       </c>
       <c r="D87">
-        <v>0.03963715974922556</v>
+        <v>0.01216346969335061</v>
       </c>
       <c r="E87">
-        <v>0.007474052625351617</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08302433099145075</v>
+      </c>
+      <c r="F87">
+        <v>0.02070619349291012</v>
+      </c>
+      <c r="G87">
+        <v>-0.1023275997404092</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02769520847816399</v>
+        <v>0.09049803958172149</v>
       </c>
       <c r="C88">
-        <v>-0.02754448208866172</v>
+        <v>0.06617196236011538</v>
       </c>
       <c r="D88">
-        <v>0.03871984896878421</v>
+        <v>0.02245124732815815</v>
       </c>
       <c r="E88">
-        <v>-0.00181186183807879</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.009193231208660644</v>
+      </c>
+      <c r="F88">
+        <v>-0.01868254925219453</v>
+      </c>
+      <c r="G88">
+        <v>-0.0562217620176668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.08499082134515915</v>
+        <v>0.2360913006398226</v>
       </c>
       <c r="C89">
-        <v>-0.3972734548115517</v>
+        <v>-0.3671007675487772</v>
       </c>
       <c r="D89">
-        <v>-0.2023774027539443</v>
+        <v>-0.0006144293385813636</v>
       </c>
       <c r="E89">
-        <v>-0.01432984664750473</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01793072240672776</v>
+      </c>
+      <c r="F89">
+        <v>-0.03089928436060548</v>
+      </c>
+      <c r="G89">
+        <v>-0.05108050493775625</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06434783252282694</v>
+        <v>0.2099950810658293</v>
       </c>
       <c r="C90">
-        <v>-0.306876717266243</v>
+        <v>-0.3189384730686161</v>
       </c>
       <c r="D90">
-        <v>-0.1853554640580974</v>
+        <v>-0.004661141004681997</v>
       </c>
       <c r="E90">
-        <v>0.02029200074155157</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.004551330683635868</v>
+      </c>
+      <c r="F90">
+        <v>-0.04840416029171313</v>
+      </c>
+      <c r="G90">
+        <v>-0.01708899109233014</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.008468221895863999</v>
+        <v>0.1880052758043552</v>
       </c>
       <c r="C91">
-        <v>-0.1371642309646146</v>
+        <v>0.1441647997215147</v>
       </c>
       <c r="D91">
-        <v>0.2333377087513067</v>
+        <v>-0.02321288080265013</v>
       </c>
       <c r="E91">
-        <v>-0.01632461238400881</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06488408906944169</v>
+      </c>
+      <c r="F91">
+        <v>-0.1481720545167007</v>
+      </c>
+      <c r="G91">
+        <v>-0.01349357824565245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.03136966667571738</v>
+        <v>0.2034828314775531</v>
       </c>
       <c r="C92">
-        <v>-0.3163657455273413</v>
+        <v>-0.2565269188812844</v>
       </c>
       <c r="D92">
-        <v>-0.07558790543451577</v>
+        <v>-0.03867805804351502</v>
       </c>
       <c r="E92">
-        <v>0.02131946062505756</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03033922451786914</v>
+      </c>
+      <c r="F92">
+        <v>-0.05937796592820486</v>
+      </c>
+      <c r="G92">
+        <v>-0.124854183359923</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.06231346281072123</v>
+        <v>0.2348124184761284</v>
       </c>
       <c r="C93">
-        <v>-0.3305118861210216</v>
+        <v>-0.315662974737475</v>
       </c>
       <c r="D93">
-        <v>-0.1680271877798879</v>
+        <v>-0.01118829319843097</v>
       </c>
       <c r="E93">
-        <v>0.04435944570111307</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.008778653869509661</v>
+      </c>
+      <c r="F93">
+        <v>-0.02984994329456344</v>
+      </c>
+      <c r="G93">
+        <v>-0.02212230295489385</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.03192206595118759</v>
+        <v>0.3142054714044926</v>
       </c>
       <c r="C94">
-        <v>-0.1590188216834463</v>
+        <v>0.180142214835915</v>
       </c>
       <c r="D94">
-        <v>0.2575414054722978</v>
+        <v>-0.0181521346778135</v>
       </c>
       <c r="E94">
-        <v>0.01321406552312692</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1627048928194458</v>
+      </c>
+      <c r="F94">
+        <v>-0.4771121864887422</v>
+      </c>
+      <c r="G94">
+        <v>0.325075152351578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.004440130426086742</v>
+        <v>0.09720748327370803</v>
       </c>
       <c r="C95">
-        <v>-0.03427768394832795</v>
+        <v>0.08695631880476555</v>
       </c>
       <c r="D95">
-        <v>0.09687580463209809</v>
+        <v>-0.009579817694197931</v>
       </c>
       <c r="E95">
-        <v>0.1270672292062301</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06302529763116728</v>
+      </c>
+      <c r="F95">
+        <v>0.2096008123907333</v>
+      </c>
+      <c r="G95">
+        <v>0.09151484827882556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.01490543107221192</v>
+        <v>0.1972908099059759</v>
       </c>
       <c r="C98">
-        <v>-0.1507094375671716</v>
+        <v>0.05008194686318344</v>
       </c>
       <c r="D98">
-        <v>0.1435765916120194</v>
+        <v>-0.01212731106992935</v>
       </c>
       <c r="E98">
-        <v>0.04461325035842552</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06630070492377989</v>
+      </c>
+      <c r="F98">
+        <v>0.2389536566478472</v>
+      </c>
+      <c r="G98">
+        <v>0.003782129060252643</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.008875666246121136</v>
+        <v>0.008994070298285233</v>
       </c>
       <c r="C101">
-        <v>-0.01889131324689667</v>
+        <v>0.02007214793927565</v>
       </c>
       <c r="D101">
-        <v>0.009748642848603713</v>
+        <v>0.008056353794541034</v>
       </c>
       <c r="E101">
-        <v>-0.00382049821903877</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.001806485918497666</v>
+      </c>
+      <c r="F101">
+        <v>-0.01718824258362546</v>
+      </c>
+      <c r="G101">
+        <v>-0.07453986386213962</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01811503172894512</v>
+        <v>0.1166810896730067</v>
       </c>
       <c r="C102">
-        <v>-0.0671744560865172</v>
+        <v>0.08640144761551438</v>
       </c>
       <c r="D102">
-        <v>0.1345521146124571</v>
+        <v>0.001044945674363267</v>
       </c>
       <c r="E102">
-        <v>-0.00339646184978446</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03106911885911363</v>
+      </c>
+      <c r="F102">
+        <v>-0.04033741693073271</v>
+      </c>
+      <c r="G102">
+        <v>-0.003748859506789499</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.0009175857056404123</v>
+        <v>0.002163297083460554</v>
       </c>
       <c r="C103">
-        <v>-0.005744649365130343</v>
+        <v>0.00361603415801095</v>
       </c>
       <c r="D103">
-        <v>0.01965908319296511</v>
+        <v>-5.604579100616401e-05</v>
       </c>
       <c r="E103">
-        <v>-0.01264429889877857</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.0005486649714659546</v>
+      </c>
+      <c r="F103">
+        <v>-0.006951765534805721</v>
+      </c>
+      <c r="G103">
+        <v>-0.01028817424628555</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9744280525235767</v>
+        <v>0.02121692937644853</v>
       </c>
       <c r="C104">
-        <v>0.1780884942060463</v>
+        <v>-0.02944278407731682</v>
       </c>
       <c r="D104">
-        <v>-0.02045285892387219</v>
+        <v>0.9872990802987628</v>
       </c>
       <c r="E104">
-        <v>-0.03912268153487268</v>
+        <v>-0.05357925666727385</v>
+      </c>
+      <c r="F104">
+        <v>-0.03836225157496208</v>
+      </c>
+      <c r="G104">
+        <v>0.02507663937574206</v>
       </c>
     </row>
   </sheetData>
